--- a/WEEK3/Learning02/diagrama_flujoClass.xlsx
+++ b/WEEK3/Learning02/diagrama_flujoClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SERGIO\BYUi\SemestreDel2024FinDeAno\CSE-210_Programming_with_Classes\CSE-210\WEEK3\Learning02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72461AAD-2632-444C-9C04-51F3E10479BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB8EC3B-3210-4B94-8F7A-68EB5E58A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="3495" windowWidth="21600" windowHeight="11295" xr2:uid="{5ECB9AE8-3BF1-4D64-B639-4134DE9BA544}"/>
+    <workbookView xWindow="7305" yWindow="3495" windowWidth="21600" windowHeight="11295" xr2:uid="{5ECB9AE8-3BF1-4D64-B639-4134DE9BA544}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Journal</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>GetRandomPrompt() : string</t>
+  </si>
+  <si>
+    <t>_Prompt  : string</t>
   </si>
 </sst>
 </file>
@@ -138,22 +141,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,16 +489,16 @@
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,11 +506,9 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
@@ -521,11 +517,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8"/>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
@@ -538,7 +532,6 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
@@ -548,8 +541,8 @@
         <v>6</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -558,7 +551,9 @@
         <v>7</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -574,7 +569,6 @@
         <v>9</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
